--- a/PattRecClasses-bays-V3/PattRecClasses/PhaseEstimation/DataFiles/SpringField-First_AdaptiveSignal.xlsx
+++ b/PattRecClasses-bays-V3/PattRecClasses/PhaseEstimation/DataFiles/SpringField-First_AdaptiveSignal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="10515" windowHeight="6465" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="10515" windowHeight="6405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>maneuvers{1} = [68509, 36288];</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>swipe error</t>
   </si>
 </sst>
 </file>
@@ -456,19 +459,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C378"/>
+  <dimension ref="A1:E378"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="G135" sqref="G135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>68509</v>
       </c>
@@ -478,8 +482,12 @@
       <c r="C1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1">
+        <f>(B1-$B$1)/1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>68482</v>
       </c>
@@ -489,8 +497,12 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <f t="shared" ref="D2:D65" si="0">(B2-$B$1)/1000</f>
+        <v>1.5289999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>68509</v>
       </c>
@@ -500,8 +512,12 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>2.3479999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>68509</v>
       </c>
@@ -511,8 +527,12 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>3.5310000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>68482</v>
       </c>
@@ -522,8 +542,12 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>11.241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>36290</v>
       </c>
@@ -533,8 +557,12 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>13.038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>68482</v>
       </c>
@@ -544,8 +572,12 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>23.890999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>68482</v>
       </c>
@@ -555,8 +587,12 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>25.806999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>68482</v>
       </c>
@@ -566,8 +602,12 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>28.238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>68482</v>
       </c>
@@ -577,8 +617,12 @@
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>33.122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>68509</v>
       </c>
@@ -588,8 +632,12 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>34.622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>68482</v>
       </c>
@@ -599,8 +647,12 @@
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>35.835999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>68509</v>
       </c>
@@ -610,8 +662,12 @@
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>43.265000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>68509</v>
       </c>
@@ -621,8 +677,12 @@
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>46.723999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>36288</v>
       </c>
@@ -632,8 +692,12 @@
       <c r="C15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>50.081000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>68509</v>
       </c>
@@ -643,8 +707,12 @@
       <c r="C16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>53.607999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>68509</v>
       </c>
@@ -654,8 +722,12 @@
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>55.148000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>68509</v>
       </c>
@@ -665,8 +737,12 @@
       <c r="C18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>62.128999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>68492</v>
       </c>
@@ -676,8 +752,12 @@
       <c r="C19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>78.206000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>36289</v>
       </c>
@@ -687,8 +767,12 @@
       <c r="C20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>79.593999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>36289</v>
       </c>
@@ -698,8 +782,12 @@
       <c r="C21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>82.531000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>36289</v>
       </c>
@@ -709,8 +797,12 @@
       <c r="C22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>84.052999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>68511</v>
       </c>
@@ -720,8 +812,12 @@
       <c r="C23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>84.844999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>68511</v>
       </c>
@@ -731,8 +827,12 @@
       <c r="C24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>87.39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>68511</v>
       </c>
@@ -742,8 +842,12 @@
       <c r="C25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>89.480999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>36289</v>
       </c>
@@ -753,8 +857,12 @@
       <c r="C26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>90.742999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>68492</v>
       </c>
@@ -764,8 +872,12 @@
       <c r="C27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>91.558999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>68492</v>
       </c>
@@ -775,8 +887,12 @@
       <c r="C28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>93.375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>68482</v>
       </c>
@@ -786,8 +902,12 @@
       <c r="C29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>103.248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>68509</v>
       </c>
@@ -797,8 +917,12 @@
       <c r="C30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>104.31699999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>68482</v>
       </c>
@@ -808,8 +932,12 @@
       <c r="C31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>104.901</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>68509</v>
       </c>
@@ -819,8 +947,12 @@
       <c r="C32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>106.259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>68482</v>
       </c>
@@ -830,8 +962,12 @@
       <c r="C33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>106.843</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>68482</v>
       </c>
@@ -841,8 +977,12 @@
       <c r="C34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>107.73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>68509</v>
       </c>
@@ -852,8 +992,12 @@
       <c r="C35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>109.28700000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>68482</v>
       </c>
@@ -863,8 +1007,12 @@
       <c r="C36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>111.087</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>68481</v>
       </c>
@@ -874,8 +1022,12 @@
       <c r="C37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>114.202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>68481</v>
       </c>
@@ -885,8 +1037,12 @@
       <c r="C38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>118.78400000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>68509</v>
       </c>
@@ -896,8 +1052,12 @@
       <c r="C39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>124.179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>68482</v>
       </c>
@@ -907,8 +1067,12 @@
       <c r="C40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>127.149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>68482</v>
       </c>
@@ -918,8 +1082,12 @@
       <c r="C41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>129.364</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>68509</v>
       </c>
@@ -929,8 +1097,12 @@
       <c r="C42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>131.08600000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>68482</v>
       </c>
@@ -940,8 +1112,12 @@
       <c r="C43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>133.42699999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>36288</v>
       </c>
@@ -951,8 +1127,12 @@
       <c r="C44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>135.07</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>36290</v>
       </c>
@@ -962,8 +1142,12 @@
       <c r="C45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>135.98599999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>68482</v>
       </c>
@@ -973,8 +1157,12 @@
       <c r="C46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>137.08000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>68482</v>
       </c>
@@ -984,8 +1172,12 @@
       <c r="C47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>139.05600000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>68509</v>
       </c>
@@ -995,8 +1187,12 @@
       <c r="C48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>140.125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>68482</v>
       </c>
@@ -1006,8 +1202,12 @@
       <c r="C49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>140.982</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>68509</v>
       </c>
@@ -1017,8 +1217,12 @@
       <c r="C50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>141.94200000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>68509</v>
       </c>
@@ -1028,8 +1232,12 @@
       <c r="C51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>143.91300000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>36290</v>
       </c>
@@ -1039,8 +1247,12 @@
       <c r="C52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>145.47399999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>68509</v>
       </c>
@@ -1050,8 +1262,12 @@
       <c r="C53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>159.30000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>68509</v>
       </c>
@@ -1061,8 +1277,12 @@
       <c r="C54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>160.59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>68492</v>
       </c>
@@ -1072,8 +1292,12 @@
       <c r="C55">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>167.07300000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>68483</v>
       </c>
@@ -1083,8 +1307,12 @@
       <c r="C56">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>168.226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>68492</v>
       </c>
@@ -1094,8 +1322,12 @@
       <c r="C57">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>169.21600000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>68511</v>
       </c>
@@ -1105,8 +1337,12 @@
       <c r="C58">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>171.184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>68492</v>
       </c>
@@ -1116,8 +1352,12 @@
       <c r="C59">
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>175.13300000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>68492</v>
       </c>
@@ -1127,8 +1367,12 @@
       <c r="C60">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>176.88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>36289</v>
       </c>
@@ -1136,10 +1380,14 @@
         <v>1368904860769</v>
       </c>
       <c r="C61">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>178.75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>68492</v>
       </c>
@@ -1147,10 +1395,14 @@
         <v>1368904862545</v>
       </c>
       <c r="C62">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>180.52600000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>36289</v>
       </c>
@@ -1158,10 +1410,14 @@
         <v>1368904863202</v>
       </c>
       <c r="C63">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>181.18299999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>36289</v>
       </c>
@@ -1171,8 +1427,12 @@
       <c r="C64">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>184.13800000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>68481</v>
       </c>
@@ -1182,8 +1442,12 @@
       <c r="C65">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>187.08199999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>68511</v>
       </c>
@@ -1193,8 +1457,12 @@
       <c r="C66">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <f t="shared" ref="D66:D129" si="1">(B66-$B$1)/1000</f>
+        <v>188.73599999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>36289</v>
       </c>
@@ -1204,8 +1472,12 @@
       <c r="C67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <f t="shared" si="1"/>
+        <v>191.93600000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>68510</v>
       </c>
@@ -1215,8 +1487,12 @@
       <c r="C68">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>193.48699999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68490</v>
       </c>
@@ -1226,8 +1502,12 @@
       <c r="C69">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>203.45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68509</v>
       </c>
@@ -1237,8 +1517,12 @@
       <c r="C70">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>205.47200000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>36288</v>
       </c>
@@ -1246,10 +1530,14 @@
         <v>1368904888917</v>
       </c>
       <c r="C71">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>206.898</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>36290</v>
       </c>
@@ -1257,10 +1545,14 @@
         <v>1368904895429</v>
       </c>
       <c r="C72">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>213.41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>68482</v>
       </c>
@@ -1268,10 +1560,14 @@
         <v>1368904896923</v>
       </c>
       <c r="C73">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>214.904</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>68491</v>
       </c>
@@ -1281,8 +1577,12 @@
       <c r="C74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>218.303</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>68482</v>
       </c>
@@ -1292,8 +1592,12 @@
       <c r="C75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>220.65299999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>68509</v>
       </c>
@@ -1303,8 +1607,12 @@
       <c r="C76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>226.86799999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>68482</v>
       </c>
@@ -1314,8 +1622,12 @@
       <c r="C77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>227.73699999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>68509</v>
       </c>
@@ -1325,8 +1637,12 @@
       <c r="C78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>228.86199999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>68509</v>
       </c>
@@ -1336,8 +1652,12 @@
       <c r="C79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>232.53100000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>68509</v>
       </c>
@@ -1347,8 +1667,12 @@
       <c r="C80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>237.21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>68509</v>
       </c>
@@ -1358,8 +1682,12 @@
       <c r="C81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>239.15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>68509</v>
       </c>
@@ -1369,8 +1697,12 @@
       <c r="C82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>243.33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>68511</v>
       </c>
@@ -1380,8 +1712,12 @@
       <c r="C83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>247.285</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>68482</v>
       </c>
@@ -1391,8 +1727,12 @@
       <c r="C84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>255.49199999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>36289</v>
       </c>
@@ -1402,8 +1742,12 @@
       <c r="C85">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>269.71499999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>68510</v>
       </c>
@@ -1413,8 +1757,12 @@
       <c r="C86">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>271.149</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>36289</v>
       </c>
@@ -1424,8 +1772,12 @@
       <c r="C87">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>271.89299999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>68481</v>
       </c>
@@ -1435,8 +1787,12 @@
       <c r="C88">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>275.14800000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>36289</v>
       </c>
@@ -1446,8 +1802,12 @@
       <c r="C89">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>276.43700000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>68492</v>
       </c>
@@ -1457,8 +1817,12 @@
       <c r="C90">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>277.61500000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>68492</v>
       </c>
@@ -1468,8 +1832,12 @@
       <c r="C91">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>280.97500000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>68492</v>
       </c>
@@ -1479,8 +1847,12 @@
       <c r="C92">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>284.24700000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>68492</v>
       </c>
@@ -1490,8 +1862,12 @@
       <c r="C93">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>284.87200000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>68492</v>
       </c>
@@ -1501,8 +1877,12 @@
       <c r="C94">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>285.45999999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>68492</v>
       </c>
@@ -1512,8 +1892,12 @@
       <c r="C95">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <f t="shared" si="1"/>
+        <v>285.86500000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>36289</v>
       </c>
@@ -1523,8 +1907,12 @@
       <c r="C96">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <f t="shared" si="1"/>
+        <v>286.97699999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>68509</v>
       </c>
@@ -1534,8 +1922,12 @@
       <c r="C97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>296.31799999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>68482</v>
       </c>
@@ -1545,8 +1937,12 @@
       <c r="C98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <f t="shared" si="1"/>
+        <v>297.85599999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>68482</v>
       </c>
@@ -1556,8 +1952,12 @@
       <c r="C99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <f t="shared" si="1"/>
+        <v>299.22399999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>68509</v>
       </c>
@@ -1567,8 +1967,12 @@
       <c r="C100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <f t="shared" si="1"/>
+        <v>300.52300000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>68482</v>
       </c>
@@ -1578,8 +1982,12 @@
       <c r="C101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <f t="shared" si="1"/>
+        <v>306.66199999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>68511</v>
       </c>
@@ -1589,8 +1997,12 @@
       <c r="C102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <f t="shared" si="1"/>
+        <v>307.91800000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>68482</v>
       </c>
@@ -1600,8 +2012,12 @@
       <c r="C103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <f t="shared" si="1"/>
+        <v>309.04899999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>68482</v>
       </c>
@@ -1611,8 +2027,12 @@
       <c r="C104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <f t="shared" si="1"/>
+        <v>310.19600000000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>68509</v>
       </c>
@@ -1622,8 +2042,12 @@
       <c r="C105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <f t="shared" si="1"/>
+        <v>322.565</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>68509</v>
       </c>
@@ -1633,8 +2057,12 @@
       <c r="C106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <f t="shared" si="1"/>
+        <v>325.25299999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>68509</v>
       </c>
@@ -1644,8 +2072,12 @@
       <c r="C107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <f t="shared" si="1"/>
+        <v>329.476</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>68482</v>
       </c>
@@ -1655,8 +2087,12 @@
       <c r="C108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <f t="shared" si="1"/>
+        <v>331.548</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>68509</v>
       </c>
@@ -1666,8 +2102,12 @@
       <c r="C109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <f t="shared" si="1"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>68509</v>
       </c>
@@ -1677,8 +2117,12 @@
       <c r="C110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <f t="shared" si="1"/>
+        <v>334.71499999999997</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>68509</v>
       </c>
@@ -1688,8 +2132,12 @@
       <c r="C111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <f t="shared" si="1"/>
+        <v>337.28100000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>68482</v>
       </c>
@@ -1699,8 +2147,12 @@
       <c r="C112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <f t="shared" si="1"/>
+        <v>347.49099999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>68482</v>
       </c>
@@ -1710,8 +2162,12 @@
       <c r="C113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <f t="shared" si="1"/>
+        <v>348.88099999999997</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>68482</v>
       </c>
@@ -1721,8 +2177,12 @@
       <c r="C114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <f t="shared" si="1"/>
+        <v>357.51499999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>36288</v>
       </c>
@@ -1732,8 +2192,12 @@
       <c r="C115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <f t="shared" si="1"/>
+        <v>364.78199999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>68492</v>
       </c>
@@ -1741,10 +2205,14 @@
         <v>1368905061191</v>
       </c>
       <c r="C116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="1"/>
+        <v>379.17200000000003</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>36289</v>
       </c>
@@ -1754,8 +2222,12 @@
       <c r="C117">
         <v>2</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <f t="shared" si="1"/>
+        <v>380.21800000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>36289</v>
       </c>
@@ -1765,8 +2237,12 @@
       <c r="C118">
         <v>2</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <f t="shared" si="1"/>
+        <v>381.65</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>68492</v>
       </c>
@@ -1776,8 +2252,12 @@
       <c r="C119">
         <v>2</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <f t="shared" si="1"/>
+        <v>382.46800000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>36289</v>
       </c>
@@ -1787,8 +2267,12 @@
       <c r="C120">
         <v>2</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <f t="shared" si="1"/>
+        <v>383.77699999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>68511</v>
       </c>
@@ -1798,8 +2282,12 @@
       <c r="C121">
         <v>2</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <f t="shared" si="1"/>
+        <v>384.96300000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>36289</v>
       </c>
@@ -1809,8 +2297,12 @@
       <c r="C122">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <f t="shared" si="1"/>
+        <v>386.07299999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>68511</v>
       </c>
@@ -1820,8 +2312,12 @@
       <c r="C123">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <f t="shared" si="1"/>
+        <v>387.26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>68492</v>
       </c>
@@ -1831,8 +2327,12 @@
       <c r="C124">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <f t="shared" si="1"/>
+        <v>390.14100000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>36289</v>
       </c>
@@ -1842,8 +2342,12 @@
       <c r="C125">
         <v>2</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <f t="shared" si="1"/>
+        <v>391.46199999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>68492</v>
       </c>
@@ -1853,8 +2357,12 @@
       <c r="C126">
         <v>2</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <f t="shared" si="1"/>
+        <v>392.346</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>68481</v>
       </c>
@@ -1864,8 +2372,12 @@
       <c r="C127">
         <v>2</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <f t="shared" si="1"/>
+        <v>394.37</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>68511</v>
       </c>
@@ -1875,8 +2387,12 @@
       <c r="C128">
         <v>2</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <f t="shared" si="1"/>
+        <v>395.863</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>68483</v>
       </c>
@@ -1886,8 +2402,12 @@
       <c r="C129">
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <f t="shared" si="1"/>
+        <v>397.47699999999998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>68482</v>
       </c>
@@ -1895,10 +2415,14 @@
         <v>1368905083846</v>
       </c>
       <c r="C130">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D130">
+        <f t="shared" ref="D130:D193" si="2">(B130-$B$1)/1000</f>
+        <v>401.827</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>68482</v>
       </c>
@@ -1906,10 +2430,14 @@
         <v>1368905086853</v>
       </c>
       <c r="C131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="2"/>
+        <v>404.834</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>68482</v>
       </c>
@@ -1917,10 +2445,14 @@
         <v>1368905092043</v>
       </c>
       <c r="C132">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="2"/>
+        <v>410.024</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>68482</v>
       </c>
@@ -1928,10 +2460,14 @@
         <v>1368905093013</v>
       </c>
       <c r="C133">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="2"/>
+        <v>410.99400000000003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>68509</v>
       </c>
@@ -1941,8 +2477,12 @@
       <c r="C134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <f t="shared" si="2"/>
+        <v>412.40300000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>68509</v>
       </c>
@@ -1952,8 +2492,12 @@
       <c r="C135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <f t="shared" si="2"/>
+        <v>413.226</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>68490</v>
       </c>
@@ -1963,8 +2507,12 @@
       <c r="C136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <f t="shared" si="2"/>
+        <v>413.93200000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>68509</v>
       </c>
@@ -1974,8 +2522,12 @@
       <c r="C137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <f t="shared" si="2"/>
+        <v>417.66300000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>68509</v>
       </c>
@@ -1985,8 +2537,12 @@
       <c r="C138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <f t="shared" si="2"/>
+        <v>419.14499999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>68509</v>
       </c>
@@ -1996,8 +2552,12 @@
       <c r="C139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <f t="shared" si="2"/>
+        <v>422.49599999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>68511</v>
       </c>
@@ -2007,8 +2567,12 @@
       <c r="C140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <f t="shared" si="2"/>
+        <v>425.202</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>68482</v>
       </c>
@@ -2018,8 +2582,12 @@
       <c r="C141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141">
+        <f t="shared" si="2"/>
+        <v>427.61900000000003</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>68509</v>
       </c>
@@ -2029,8 +2597,12 @@
       <c r="C142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <f t="shared" si="2"/>
+        <v>428.18599999999998</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>68509</v>
       </c>
@@ -2040,8 +2612,12 @@
       <c r="C143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <f t="shared" si="2"/>
+        <v>439.68099999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>68509</v>
       </c>
@@ -2051,8 +2627,12 @@
       <c r="C144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144">
+        <f t="shared" si="2"/>
+        <v>440.971</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>68509</v>
       </c>
@@ -2062,8 +2642,12 @@
       <c r="C145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145">
+        <f t="shared" si="2"/>
+        <v>442.10700000000003</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>36290</v>
       </c>
@@ -2073,8 +2657,12 @@
       <c r="C146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <f t="shared" si="2"/>
+        <v>443.22199999999998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>68482</v>
       </c>
@@ -2084,8 +2672,12 @@
       <c r="C147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147">
+        <f t="shared" si="2"/>
+        <v>444.09500000000003</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>68511</v>
       </c>
@@ -2095,8 +2687,12 @@
       <c r="C148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148">
+        <f t="shared" si="2"/>
+        <v>446.303</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>68482</v>
       </c>
@@ -2106,8 +2702,12 @@
       <c r="C149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149">
+        <f t="shared" si="2"/>
+        <v>447.78300000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>68482</v>
       </c>
@@ -2117,8 +2717,12 @@
       <c r="C150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150">
+        <f t="shared" si="2"/>
+        <v>450.16399999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>68482</v>
       </c>
@@ -2128,8 +2732,12 @@
       <c r="C151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151">
+        <f t="shared" si="2"/>
+        <v>459.20299999999997</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>68491</v>
       </c>
@@ -2139,8 +2747,12 @@
       <c r="C152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <f t="shared" si="2"/>
+        <v>463.05700000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>68492</v>
       </c>
@@ -2150,8 +2762,12 @@
       <c r="C153">
         <v>7</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153">
+        <f t="shared" si="2"/>
+        <v>467.62200000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>68483</v>
       </c>
@@ -2161,8 +2777,12 @@
       <c r="C154">
         <v>7</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154">
+        <f t="shared" si="2"/>
+        <v>468.58</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>68511</v>
       </c>
@@ -2172,8 +2792,12 @@
       <c r="C155">
         <v>7</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155">
+        <f t="shared" si="2"/>
+        <v>469.88400000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>68511</v>
       </c>
@@ -2183,8 +2807,12 @@
       <c r="C156">
         <v>7</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <f t="shared" si="2"/>
+        <v>473.65100000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>68492</v>
       </c>
@@ -2194,8 +2822,12 @@
       <c r="C157">
         <v>2</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157">
+        <f t="shared" si="2"/>
+        <v>476.30900000000003</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>36289</v>
       </c>
@@ -2205,8 +2837,12 @@
       <c r="C158">
         <v>2</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158">
+        <f t="shared" si="2"/>
+        <v>478.73899999999998</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>68492</v>
       </c>
@@ -2216,8 +2852,12 @@
       <c r="C159">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159">
+        <f t="shared" si="2"/>
+        <v>479.28199999999998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>36289</v>
       </c>
@@ -2227,8 +2867,12 @@
       <c r="C160">
         <v>2</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160">
+        <f t="shared" si="2"/>
+        <v>481.00599999999997</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>68492</v>
       </c>
@@ -2238,8 +2882,12 @@
       <c r="C161">
         <v>2</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161">
+        <f t="shared" si="2"/>
+        <v>482.02600000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>36289</v>
       </c>
@@ -2249,8 +2897,12 @@
       <c r="C162">
         <v>2</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162">
+        <f t="shared" si="2"/>
+        <v>486.45100000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>68483</v>
       </c>
@@ -2260,8 +2912,12 @@
       <c r="C163">
         <v>2</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163">
+        <f t="shared" si="2"/>
+        <v>487.56099999999998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>36288</v>
       </c>
@@ -2271,8 +2927,12 @@
       <c r="C164">
         <v>2</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164">
+        <f t="shared" si="2"/>
+        <v>489.30799999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>68483</v>
       </c>
@@ -2282,8 +2942,12 @@
       <c r="C165">
         <v>2</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165">
+        <f t="shared" si="2"/>
+        <v>494.09300000000002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>68490</v>
       </c>
@@ -2291,10 +2955,14 @@
         <v>1368905185425</v>
       </c>
       <c r="C166">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="2"/>
+        <v>503.40600000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>68509</v>
       </c>
@@ -2302,10 +2970,14 @@
         <v>1368905187649</v>
       </c>
       <c r="C167">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="2"/>
+        <v>505.63</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>68482</v>
       </c>
@@ -2313,10 +2985,17 @@
         <v>1368905192546</v>
       </c>
       <c r="C168">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="2"/>
+        <v>510.52699999999999</v>
+      </c>
+      <c r="E168" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>68482</v>
       </c>
@@ -2326,8 +3005,12 @@
       <c r="C169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169">
+        <f t="shared" si="2"/>
+        <v>512.03099999999995</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>68482</v>
       </c>
@@ -2337,8 +3020,12 @@
       <c r="C170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170">
+        <f t="shared" si="2"/>
+        <v>514.78200000000004</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>68482</v>
       </c>
@@ -2348,8 +3035,12 @@
       <c r="C171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171">
+        <f t="shared" si="2"/>
+        <v>516.12699999999995</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>68482</v>
       </c>
@@ -2359,8 +3050,12 @@
       <c r="C172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172">
+        <f t="shared" si="2"/>
+        <v>520.92899999999997</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>68482</v>
       </c>
@@ -2370,8 +3065,12 @@
       <c r="C173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173">
+        <f t="shared" si="2"/>
+        <v>522.149</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>68482</v>
       </c>
@@ -2381,8 +3080,12 @@
       <c r="C174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174">
+        <f t="shared" si="2"/>
+        <v>524.41600000000005</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>68482</v>
       </c>
@@ -2392,8 +3095,12 @@
       <c r="C175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175">
+        <f t="shared" si="2"/>
+        <v>526.53</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>68509</v>
       </c>
@@ -2403,8 +3110,12 @@
       <c r="C176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176">
+        <f t="shared" si="2"/>
+        <v>527.67999999999995</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>68509</v>
       </c>
@@ -2414,8 +3125,12 @@
       <c r="C177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177">
+        <f t="shared" si="2"/>
+        <v>528.29499999999996</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>68509</v>
       </c>
@@ -2425,8 +3140,12 @@
       <c r="C178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178">
+        <f t="shared" si="2"/>
+        <v>530.65899999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>68482</v>
       </c>
@@ -2436,8 +3155,12 @@
       <c r="C179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179">
+        <f t="shared" si="2"/>
+        <v>532.11300000000006</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>36290</v>
       </c>
@@ -2447,8 +3170,12 @@
       <c r="C180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180">
+        <f t="shared" si="2"/>
+        <v>533.87300000000005</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>68509</v>
       </c>
@@ -2458,8 +3185,12 @@
       <c r="C181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181">
+        <f t="shared" si="2"/>
+        <v>538.601</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>68509</v>
       </c>
@@ -2469,8 +3200,12 @@
       <c r="C182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182">
+        <f t="shared" si="2"/>
+        <v>539.82100000000003</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>68509</v>
       </c>
@@ -2480,8 +3215,12 @@
       <c r="C183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183">
+        <f t="shared" si="2"/>
+        <v>543.72299999999996</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>68509</v>
       </c>
@@ -2491,8 +3230,12 @@
       <c r="C184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184">
+        <f t="shared" si="2"/>
+        <v>547.60199999999998</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>68509</v>
       </c>
@@ -2502,8 +3245,12 @@
       <c r="C185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185">
+        <f t="shared" si="2"/>
+        <v>551.45000000000005</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>68509</v>
       </c>
@@ -2513,8 +3260,12 @@
       <c r="C186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186">
+        <f t="shared" si="2"/>
+        <v>553.721</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>68509</v>
       </c>
@@ -2524,8 +3275,12 @@
       <c r="C187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187">
+        <f t="shared" si="2"/>
+        <v>555.30799999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>68482</v>
       </c>
@@ -2535,8 +3290,12 @@
       <c r="C188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188">
+        <f t="shared" si="2"/>
+        <v>559.03200000000004</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>68482</v>
       </c>
@@ -2546,8 +3305,12 @@
       <c r="C189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189">
+        <f t="shared" si="2"/>
+        <v>561.26700000000005</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>68510</v>
       </c>
@@ -2557,8 +3320,12 @@
       <c r="C190">
         <v>8</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190">
+        <f t="shared" si="2"/>
+        <v>567.88400000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>36289</v>
       </c>
@@ -2568,8 +3335,12 @@
       <c r="C191">
         <v>8</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191">
+        <f t="shared" si="2"/>
+        <v>568.88900000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>36289</v>
       </c>
@@ -2579,8 +3350,12 @@
       <c r="C192">
         <v>8</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192">
+        <f t="shared" si="2"/>
+        <v>571.24400000000003</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>68481</v>
       </c>
@@ -2590,8 +3365,12 @@
       <c r="C193">
         <v>8</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193">
+        <f t="shared" si="2"/>
+        <v>574.32399999999996</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>68481</v>
       </c>
@@ -2601,8 +3380,12 @@
       <c r="C194">
         <v>8</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194">
+        <f t="shared" ref="D194:D257" si="3">(B194-$B$1)/1000</f>
+        <v>575.63599999999997</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>68492</v>
       </c>
@@ -2612,8 +3395,12 @@
       <c r="C195">
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195">
+        <f t="shared" si="3"/>
+        <v>577.38900000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>68492</v>
       </c>
@@ -2623,8 +3410,12 @@
       <c r="C196">
         <v>2</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196">
+        <f t="shared" si="3"/>
+        <v>579.755</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>36289</v>
       </c>
@@ -2634,8 +3425,12 @@
       <c r="C197">
         <v>2</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197">
+        <f t="shared" si="3"/>
+        <v>580.85900000000004</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>68492</v>
       </c>
@@ -2645,8 +3440,12 @@
       <c r="C198">
         <v>2</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198">
+        <f t="shared" si="3"/>
+        <v>582.18200000000002</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>68481</v>
       </c>
@@ -2656,8 +3455,12 @@
       <c r="C199">
         <v>2</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199">
+        <f t="shared" si="3"/>
+        <v>583.00900000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>68511</v>
       </c>
@@ -2667,8 +3470,12 @@
       <c r="C200">
         <v>2</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200">
+        <f t="shared" si="3"/>
+        <v>585.19799999999998</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>36289</v>
       </c>
@@ -2678,8 +3485,12 @@
       <c r="C201">
         <v>2</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201">
+        <f t="shared" si="3"/>
+        <v>586.31299999999999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>68492</v>
       </c>
@@ -2689,8 +3500,12 @@
       <c r="C202">
         <v>2</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202">
+        <f t="shared" si="3"/>
+        <v>587.48900000000003</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>68492</v>
       </c>
@@ -2700,8 +3515,12 @@
       <c r="C203">
         <v>2</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203">
+        <f t="shared" si="3"/>
+        <v>590.04499999999996</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>36289</v>
       </c>
@@ -2711,8 +3530,12 @@
       <c r="C204">
         <v>2</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204">
+        <f t="shared" si="3"/>
+        <v>592.19299999999998</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>68509</v>
       </c>
@@ -2722,8 +3545,12 @@
       <c r="C205">
         <v>5</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205">
+        <f t="shared" si="3"/>
+        <v>602.36099999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>68490</v>
       </c>
@@ -2733,8 +3560,12 @@
       <c r="C206">
         <v>5</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206">
+        <f t="shared" si="3"/>
+        <v>603.45500000000004</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>68509</v>
       </c>
@@ -2744,8 +3575,12 @@
       <c r="C207">
         <v>5</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207">
+        <f t="shared" si="3"/>
+        <v>604.31200000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>68509</v>
       </c>
@@ -2755,8 +3590,12 @@
       <c r="C208">
         <v>5</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208">
+        <f t="shared" si="3"/>
+        <v>606.79100000000005</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>68482</v>
       </c>
@@ -2766,8 +3605,12 @@
       <c r="C209">
         <v>5</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209">
+        <f t="shared" si="3"/>
+        <v>611.72500000000002</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>68491</v>
       </c>
@@ -2777,8 +3620,12 @@
       <c r="C210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210">
+        <f t="shared" si="3"/>
+        <v>616.10400000000004</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>68482</v>
       </c>
@@ -2788,8 +3635,12 @@
       <c r="C211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211">
+        <f t="shared" si="3"/>
+        <v>618.17899999999997</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>68482</v>
       </c>
@@ -2799,8 +3650,12 @@
       <c r="C212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212">
+        <f t="shared" si="3"/>
+        <v>624.81100000000004</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>68509</v>
       </c>
@@ -2810,8 +3665,12 @@
       <c r="C213">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213">
+        <f t="shared" si="3"/>
+        <v>625.822</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>36290</v>
       </c>
@@ -2821,8 +3680,12 @@
       <c r="C214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214">
+        <f t="shared" si="3"/>
+        <v>628.97500000000002</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>68509</v>
       </c>
@@ -2832,8 +3695,12 @@
       <c r="C215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215">
+        <f t="shared" si="3"/>
+        <v>635.25900000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>36288</v>
       </c>
@@ -2843,8 +3710,12 @@
       <c r="C216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216">
+        <f t="shared" si="3"/>
+        <v>636.33000000000004</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>68509</v>
       </c>
@@ -2854,8 +3725,12 @@
       <c r="C217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217">
+        <f t="shared" si="3"/>
+        <v>641.11300000000006</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>68509</v>
       </c>
@@ -2865,8 +3740,12 @@
       <c r="C218">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218">
+        <f t="shared" si="3"/>
+        <v>646.07100000000003</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>68509</v>
       </c>
@@ -2876,8 +3755,12 @@
       <c r="C219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219">
+        <f t="shared" si="3"/>
+        <v>649.42600000000004</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>68482</v>
       </c>
@@ -2887,8 +3770,12 @@
       <c r="C220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220">
+        <f t="shared" si="3"/>
+        <v>650.32399999999996</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>68482</v>
       </c>
@@ -2898,8 +3785,12 @@
       <c r="C221">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221">
+        <f t="shared" si="3"/>
+        <v>651.36</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>68509</v>
       </c>
@@ -2909,8 +3800,12 @@
       <c r="C222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D222">
+        <f t="shared" si="3"/>
+        <v>652.14700000000005</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>68482</v>
       </c>
@@ -2920,8 +3815,12 @@
       <c r="C223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D223">
+        <f t="shared" si="3"/>
+        <v>653.35699999999997</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>68509</v>
       </c>
@@ -2931,8 +3830,12 @@
       <c r="C224">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224">
+        <f t="shared" si="3"/>
+        <v>654.53099999999995</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>68509</v>
       </c>
@@ -2942,8 +3845,12 @@
       <c r="C225">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225">
+        <f t="shared" si="3"/>
+        <v>661.76</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>68509</v>
       </c>
@@ -2953,8 +3860,12 @@
       <c r="C226">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226">
+        <f t="shared" si="3"/>
+        <v>670.8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>68492</v>
       </c>
@@ -2964,8 +3875,12 @@
       <c r="C227">
         <v>2</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D227">
+        <f t="shared" si="3"/>
+        <v>678.79499999999996</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>68511</v>
       </c>
@@ -2975,8 +3890,12 @@
       <c r="C228">
         <v>2</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D228">
+        <f t="shared" si="3"/>
+        <v>681.495</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>68492</v>
       </c>
@@ -2986,8 +3905,12 @@
       <c r="C229">
         <v>2</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D229">
+        <f t="shared" si="3"/>
+        <v>683.59100000000001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>68511</v>
       </c>
@@ -2997,8 +3920,12 @@
       <c r="C230">
         <v>2</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230">
+        <f t="shared" si="3"/>
+        <v>685.87599999999998</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>68511</v>
       </c>
@@ -3008,8 +3935,12 @@
       <c r="C231">
         <v>2</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231">
+        <f t="shared" si="3"/>
+        <v>688.90200000000004</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>68492</v>
       </c>
@@ -3019,8 +3950,12 @@
       <c r="C232">
         <v>2</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232">
+        <f t="shared" si="3"/>
+        <v>690.68600000000004</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>68482</v>
       </c>
@@ -3030,8 +3965,12 @@
       <c r="C233">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D233">
+        <f t="shared" si="3"/>
+        <v>701.46299999999997</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>68482</v>
       </c>
@@ -3041,8 +3980,12 @@
       <c r="C234">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234">
+        <f t="shared" si="3"/>
+        <v>703.57600000000002</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>68482</v>
       </c>
@@ -3052,8 +3995,12 @@
       <c r="C235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235">
+        <f t="shared" si="3"/>
+        <v>708.92499999999995</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>36290</v>
       </c>
@@ -3063,8 +4010,12 @@
       <c r="C236">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D236">
+        <f t="shared" si="3"/>
+        <v>724.16800000000001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>68482</v>
       </c>
@@ -3074,8 +4025,12 @@
       <c r="C237">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D237">
+        <f t="shared" si="3"/>
+        <v>732.51300000000003</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>68482</v>
       </c>
@@ -3085,8 +4040,12 @@
       <c r="C238">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D238">
+        <f t="shared" si="3"/>
+        <v>735.38599999999997</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>68482</v>
       </c>
@@ -3096,8 +4055,12 @@
       <c r="C239">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D239">
+        <f t="shared" si="3"/>
+        <v>735.98099999999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>36288</v>
       </c>
@@ -3107,8 +4070,12 @@
       <c r="C240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240">
+        <f t="shared" si="3"/>
+        <v>737.32500000000005</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>68490</v>
       </c>
@@ -3118,8 +4085,12 @@
       <c r="C241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D241">
+        <f t="shared" si="3"/>
+        <v>738.12</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>68509</v>
       </c>
@@ -3129,8 +4100,12 @@
       <c r="C242">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242">
+        <f t="shared" si="3"/>
+        <v>739.447</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>68509</v>
       </c>
@@ -3140,8 +4115,12 @@
       <c r="C243">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D243">
+        <f t="shared" si="3"/>
+        <v>740.83100000000002</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>68509</v>
       </c>
@@ -3151,8 +4130,12 @@
       <c r="C244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D244">
+        <f t="shared" si="3"/>
+        <v>743.07100000000003</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>68509</v>
       </c>
@@ -3162,8 +4145,12 @@
       <c r="C245">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D245">
+        <f t="shared" si="3"/>
+        <v>744.18200000000002</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>68509</v>
       </c>
@@ -3173,8 +4160,12 @@
       <c r="C246">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D246">
+        <f t="shared" si="3"/>
+        <v>746.26300000000003</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>68509</v>
       </c>
@@ -3184,8 +4175,12 @@
       <c r="C247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D247">
+        <f t="shared" si="3"/>
+        <v>750.3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>68509</v>
       </c>
@@ -3195,8 +4190,12 @@
       <c r="C248">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D248">
+        <f t="shared" si="3"/>
+        <v>752.94</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>68509</v>
       </c>
@@ -3206,8 +4205,12 @@
       <c r="C249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D249">
+        <f t="shared" si="3"/>
+        <v>758.31399999999996</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>68482</v>
       </c>
@@ -3217,8 +4220,12 @@
       <c r="C250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D250">
+        <f t="shared" si="3"/>
+        <v>759.63199999999995</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>36288</v>
       </c>
@@ -3228,8 +4235,12 @@
       <c r="C251">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D251">
+        <f t="shared" si="3"/>
+        <v>760.846</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>68510</v>
       </c>
@@ -3239,8 +4250,12 @@
       <c r="C252">
         <v>3</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D252">
+        <f t="shared" si="3"/>
+        <v>767.46900000000005</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>68483</v>
       </c>
@@ -3250,8 +4265,12 @@
       <c r="C253">
         <v>3</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D253">
+        <f t="shared" si="3"/>
+        <v>768.51300000000003</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>68483</v>
       </c>
@@ -3261,8 +4280,12 @@
       <c r="C254">
         <v>3</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D254">
+        <f t="shared" si="3"/>
+        <v>769.64499999999998</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>36289</v>
       </c>
@@ -3272,8 +4295,12 @@
       <c r="C255">
         <v>2</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D255">
+        <f t="shared" si="3"/>
+        <v>778.601</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>68492</v>
       </c>
@@ -3283,8 +4310,12 @@
       <c r="C256">
         <v>2</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D256">
+        <f t="shared" si="3"/>
+        <v>779.59699999999998</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>36289</v>
       </c>
@@ -3294,8 +4325,12 @@
       <c r="C257">
         <v>2</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D257">
+        <f t="shared" si="3"/>
+        <v>781.71600000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>68511</v>
       </c>
@@ -3305,8 +4340,12 @@
       <c r="C258">
         <v>2</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D258">
+        <f t="shared" ref="D258:D321" si="4">(B258-$B$1)/1000</f>
+        <v>782.33399999999995</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>68481</v>
       </c>
@@ -3316,8 +4355,12 @@
       <c r="C259">
         <v>2</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D259">
+        <f t="shared" si="4"/>
+        <v>783.78300000000002</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>68492</v>
       </c>
@@ -3327,8 +4370,12 @@
       <c r="C260">
         <v>2</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D260">
+        <f t="shared" si="4"/>
+        <v>784.34299999999996</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>68492</v>
       </c>
@@ -3338,8 +4385,12 @@
       <c r="C261">
         <v>2</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D261">
+        <f t="shared" si="4"/>
+        <v>785.71500000000003</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>68492</v>
       </c>
@@ -3349,8 +4400,12 @@
       <c r="C262">
         <v>2</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D262">
+        <f t="shared" si="4"/>
+        <v>787.61699999999996</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>68511</v>
       </c>
@@ -3360,8 +4415,12 @@
       <c r="C263">
         <v>2</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D263">
+        <f t="shared" si="4"/>
+        <v>789.37199999999996</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>68492</v>
       </c>
@@ -3371,8 +4430,12 @@
       <c r="C264">
         <v>2</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D264">
+        <f t="shared" si="4"/>
+        <v>792.09400000000005</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>68511</v>
       </c>
@@ -3382,8 +4445,12 @@
       <c r="C265">
         <v>2</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D265">
+        <f t="shared" si="4"/>
+        <v>796.06100000000004</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>68490</v>
       </c>
@@ -3393,8 +4460,12 @@
       <c r="C266">
         <v>2</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D266">
+        <f t="shared" si="4"/>
+        <v>802.91899999999998</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>68490</v>
       </c>
@@ -3404,8 +4475,12 @@
       <c r="C267">
         <v>5</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D267">
+        <f t="shared" si="4"/>
+        <v>807.81600000000003</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>68482</v>
       </c>
@@ -3415,8 +4490,12 @@
       <c r="C268">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D268">
+        <f t="shared" si="4"/>
+        <v>813.52200000000005</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>68482</v>
       </c>
@@ -3426,8 +4505,12 @@
       <c r="C269">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D269">
+        <f t="shared" si="4"/>
+        <v>817.02499999999998</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>36290</v>
       </c>
@@ -3437,8 +4520,12 @@
       <c r="C270">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D270">
+        <f t="shared" si="4"/>
+        <v>821.16700000000003</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>68509</v>
       </c>
@@ -3448,8 +4535,12 @@
       <c r="C271">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D271">
+        <f t="shared" si="4"/>
+        <v>822.73400000000004</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>68509</v>
       </c>
@@ -3459,8 +4550,12 @@
       <c r="C272">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D272">
+        <f t="shared" si="4"/>
+        <v>837.40300000000002</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>36290</v>
       </c>
@@ -3470,8 +4565,12 @@
       <c r="C273">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D273">
+        <f t="shared" si="4"/>
+        <v>839.51199999999994</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>68509</v>
       </c>
@@ -3481,8 +4580,12 @@
       <c r="C274">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D274">
+        <f t="shared" si="4"/>
+        <v>840.77700000000004</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>68490</v>
       </c>
@@ -3492,8 +4595,12 @@
       <c r="C275">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D275">
+        <f t="shared" si="4"/>
+        <v>842.42200000000003</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>68509</v>
       </c>
@@ -3503,8 +4610,12 @@
       <c r="C276">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D276">
+        <f t="shared" si="4"/>
+        <v>847.17899999999997</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>68509</v>
       </c>
@@ -3514,8 +4625,12 @@
       <c r="C277">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D277">
+        <f t="shared" si="4"/>
+        <v>850.49300000000005</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>68492</v>
       </c>
@@ -3525,8 +4640,12 @@
       <c r="C278">
         <v>7</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D278">
+        <f t="shared" si="4"/>
+        <v>867.05700000000002</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>68483</v>
       </c>
@@ -3536,8 +4655,12 @@
       <c r="C279">
         <v>7</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D279">
+        <f t="shared" si="4"/>
+        <v>867.98800000000006</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>68492</v>
       </c>
@@ -3547,8 +4670,12 @@
       <c r="C280">
         <v>7</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D280">
+        <f t="shared" si="4"/>
+        <v>872.79200000000003</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>36288</v>
       </c>
@@ -3558,8 +4685,12 @@
       <c r="C281">
         <v>7</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D281">
+        <f t="shared" si="4"/>
+        <v>874.64800000000002</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>68492</v>
       </c>
@@ -3569,8 +4700,12 @@
       <c r="C282">
         <v>2</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D282">
+        <f t="shared" si="4"/>
+        <v>875.947</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>36289</v>
       </c>
@@ -3580,8 +4715,12 @@
       <c r="C283">
         <v>2</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D283">
+        <f t="shared" si="4"/>
+        <v>878.34299999999996</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>68511</v>
       </c>
@@ -3591,8 +4730,12 @@
       <c r="C284">
         <v>2</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D284">
+        <f t="shared" si="4"/>
+        <v>879.303</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>68492</v>
       </c>
@@ -3602,8 +4745,12 @@
       <c r="C285">
         <v>2</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D285">
+        <f t="shared" si="4"/>
+        <v>881.99699999999996</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>68481</v>
       </c>
@@ -3613,8 +4760,12 @@
       <c r="C286">
         <v>2</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D286">
+        <f t="shared" si="4"/>
+        <v>882.55499999999995</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>68510</v>
       </c>
@@ -3624,8 +4775,12 @@
       <c r="C287">
         <v>2</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D287">
+        <f t="shared" si="4"/>
+        <v>883.226</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>36289</v>
       </c>
@@ -3635,8 +4790,12 @@
       <c r="C288">
         <v>2</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D288">
+        <f t="shared" si="4"/>
+        <v>883.77</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>68509</v>
       </c>
@@ -3646,8 +4805,12 @@
       <c r="C289">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D289">
+        <f t="shared" si="4"/>
+        <v>894.27</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>68482</v>
       </c>
@@ -3657,8 +4820,12 @@
       <c r="C290">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D290">
+        <f t="shared" si="4"/>
+        <v>896.14499999999998</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>68482</v>
       </c>
@@ -3668,8 +4835,12 @@
       <c r="C291">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D291">
+        <f t="shared" si="4"/>
+        <v>897.52800000000002</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>68482</v>
       </c>
@@ -3679,8 +4850,12 @@
       <c r="C292">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D292">
+        <f t="shared" si="4"/>
+        <v>903.80600000000004</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>68491</v>
       </c>
@@ -3690,8 +4865,12 @@
       <c r="C293">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D293">
+        <f t="shared" si="4"/>
+        <v>909.69299999999998</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>68509</v>
       </c>
@@ -3701,8 +4880,12 @@
       <c r="C294">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D294">
+        <f t="shared" si="4"/>
+        <v>910.95899999999995</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>68509</v>
       </c>
@@ -3712,8 +4895,12 @@
       <c r="C295">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D295">
+        <f t="shared" si="4"/>
+        <v>920.51099999999997</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>36290</v>
       </c>
@@ -3723,8 +4910,12 @@
       <c r="C296">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D296">
+        <f t="shared" si="4"/>
+        <v>922.54600000000005</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>68509</v>
       </c>
@@ -3734,8 +4925,12 @@
       <c r="C297">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D297">
+        <f t="shared" si="4"/>
+        <v>930.58199999999999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>68509</v>
       </c>
@@ -3745,8 +4940,12 @@
       <c r="C298">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D298">
+        <f t="shared" si="4"/>
+        <v>932.76599999999996</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>68509</v>
       </c>
@@ -3756,8 +4955,12 @@
       <c r="C299">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D299">
+        <f t="shared" si="4"/>
+        <v>936.02599999999995</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>68482</v>
       </c>
@@ -3767,8 +4970,12 @@
       <c r="C300">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D300">
+        <f t="shared" si="4"/>
+        <v>937.06100000000004</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>68509</v>
       </c>
@@ -3778,8 +4985,12 @@
       <c r="C301">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D301">
+        <f t="shared" si="4"/>
+        <v>938.82899999999995</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>68482</v>
       </c>
@@ -3789,8 +5000,12 @@
       <c r="C302">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D302">
+        <f t="shared" si="4"/>
+        <v>939.43899999999996</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>68509</v>
       </c>
@@ -3800,8 +5015,12 @@
       <c r="C303">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D303">
+        <f t="shared" si="4"/>
+        <v>942.88099999999997</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>68482</v>
       </c>
@@ -3811,8 +5030,12 @@
       <c r="C304">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D304">
+        <f t="shared" si="4"/>
+        <v>946.452</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>36288</v>
       </c>
@@ -3822,8 +5045,12 @@
       <c r="C305">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D305">
+        <f t="shared" si="4"/>
+        <v>947.08500000000004</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>68509</v>
       </c>
@@ -3833,8 +5060,12 @@
       <c r="C306">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D306">
+        <f t="shared" si="4"/>
+        <v>947.92</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>68482</v>
       </c>
@@ -3844,8 +5075,12 @@
       <c r="C307">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D307">
+        <f t="shared" si="4"/>
+        <v>948.39800000000002</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>68509</v>
       </c>
@@ -3855,8 +5090,12 @@
       <c r="C308">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D308">
+        <f t="shared" si="4"/>
+        <v>949.04200000000003</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>36288</v>
       </c>
@@ -3866,8 +5105,12 @@
       <c r="C309">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D309">
+        <f t="shared" si="4"/>
+        <v>955.77</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>68509</v>
       </c>
@@ -3877,8 +5120,12 @@
       <c r="C310">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D310">
+        <f t="shared" si="4"/>
+        <v>957.88300000000004</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>36288</v>
       </c>
@@ -3888,8 +5135,12 @@
       <c r="C311">
         <v>1</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D311">
+        <f t="shared" si="4"/>
+        <v>959.47799999999995</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>68482</v>
       </c>
@@ -3899,8 +5150,12 @@
       <c r="C312">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D312">
+        <f t="shared" si="4"/>
+        <v>962.702</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>68509</v>
       </c>
@@ -3910,8 +5165,12 @@
       <c r="C313">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D313">
+        <f t="shared" si="4"/>
+        <v>965.35400000000004</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>68509</v>
       </c>
@@ -3921,8 +5180,12 @@
       <c r="C314">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D314">
+        <f t="shared" si="4"/>
+        <v>965.93299999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>68492</v>
       </c>
@@ -3932,8 +5195,12 @@
       <c r="C315">
         <v>2</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D315">
+        <f t="shared" si="4"/>
+        <v>979.71100000000001</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>68511</v>
       </c>
@@ -3943,8 +5210,12 @@
       <c r="C316">
         <v>2</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D316">
+        <f t="shared" si="4"/>
+        <v>981.82500000000005</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>36289</v>
       </c>
@@ -3954,8 +5225,12 @@
       <c r="C317">
         <v>2</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D317">
+        <f t="shared" si="4"/>
+        <v>982.86900000000003</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>68492</v>
       </c>
@@ -3965,8 +5240,12 @@
       <c r="C318">
         <v>2</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D318">
+        <f t="shared" si="4"/>
+        <v>983.94100000000003</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>68492</v>
       </c>
@@ -3976,8 +5255,12 @@
       <c r="C319">
         <v>2</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D319">
+        <f t="shared" si="4"/>
+        <v>985.47299999999996</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>36288</v>
       </c>
@@ -3987,8 +5270,12 @@
       <c r="C320">
         <v>2</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D320">
+        <f t="shared" si="4"/>
+        <v>989.70799999999997</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>68511</v>
       </c>
@@ -3998,8 +5285,12 @@
       <c r="C321">
         <v>2</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D321">
+        <f t="shared" si="4"/>
+        <v>990.35400000000004</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>68492</v>
       </c>
@@ -4009,8 +5300,12 @@
       <c r="C322">
         <v>2</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D322">
+        <f t="shared" ref="D322:D378" si="5">(B322-$B$1)/1000</f>
+        <v>991.79300000000001</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>68511</v>
       </c>
@@ -4020,8 +5315,12 @@
       <c r="C323">
         <v>2</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D323">
+        <f t="shared" si="5"/>
+        <v>994.33799999999997</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>68482</v>
       </c>
@@ -4031,8 +5330,12 @@
       <c r="C324">
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D324">
+        <f t="shared" si="5"/>
+        <v>1001.285</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>36288</v>
       </c>
@@ -4042,8 +5345,12 @@
       <c r="C325">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D325">
+        <f t="shared" si="5"/>
+        <v>1003.641</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>68509</v>
       </c>
@@ -4053,8 +5360,12 @@
       <c r="C326">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D326">
+        <f t="shared" si="5"/>
+        <v>1005.956</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>68482</v>
       </c>
@@ -4064,8 +5375,12 @@
       <c r="C327">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D327">
+        <f t="shared" si="5"/>
+        <v>1014.72</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>68509</v>
       </c>
@@ -4075,8 +5390,12 @@
       <c r="C328">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D328">
+        <f t="shared" si="5"/>
+        <v>1019.8440000000001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>68482</v>
       </c>
@@ -4086,8 +5405,12 @@
       <c r="C329">
         <v>1</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D329">
+        <f t="shared" si="5"/>
+        <v>1022.17</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>36288</v>
       </c>
@@ -4097,8 +5420,12 @@
       <c r="C330">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D330">
+        <f t="shared" si="5"/>
+        <v>1027.182</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>68509</v>
       </c>
@@ -4108,8 +5435,12 @@
       <c r="C331">
         <v>1</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D331">
+        <f t="shared" si="5"/>
+        <v>1028.0730000000001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>68482</v>
       </c>
@@ -4119,8 +5450,12 @@
       <c r="C332">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D332">
+        <f t="shared" si="5"/>
+        <v>1032.479</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>68509</v>
       </c>
@@ -4130,8 +5465,12 @@
       <c r="C333">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D333">
+        <f t="shared" si="5"/>
+        <v>1039.1400000000001</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>68482</v>
       </c>
@@ -4141,8 +5480,12 @@
       <c r="C334">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D334">
+        <f t="shared" si="5"/>
+        <v>1045.8630000000001</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>36288</v>
       </c>
@@ -4152,8 +5495,12 @@
       <c r="C335">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D335">
+        <f t="shared" si="5"/>
+        <v>1047.8430000000001</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>68492</v>
       </c>
@@ -4163,8 +5510,12 @@
       <c r="C336">
         <v>7</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D336">
+        <f t="shared" si="5"/>
+        <v>1066.7090000000001</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>68483</v>
       </c>
@@ -4174,8 +5525,12 @@
       <c r="C337">
         <v>7</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D337">
+        <f t="shared" si="5"/>
+        <v>1068.473</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>68492</v>
       </c>
@@ -4185,8 +5540,12 @@
       <c r="C338">
         <v>7</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D338">
+        <f t="shared" si="5"/>
+        <v>1071.672</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>68492</v>
       </c>
@@ -4196,8 +5555,12 @@
       <c r="C339">
         <v>7</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D339">
+        <f t="shared" si="5"/>
+        <v>1072.5809999999999</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>68492</v>
       </c>
@@ -4207,8 +5570,12 @@
       <c r="C340">
         <v>7</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D340">
+        <f t="shared" si="5"/>
+        <v>1075.1410000000001</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>68492</v>
       </c>
@@ -4218,8 +5585,12 @@
       <c r="C341">
         <v>2</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D341">
+        <f t="shared" si="5"/>
+        <v>1077.1600000000001</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>36289</v>
       </c>
@@ -4229,8 +5600,12 @@
       <c r="C342">
         <v>2</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D342">
+        <f t="shared" si="5"/>
+        <v>1079.2950000000001</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>68492</v>
       </c>
@@ -4240,8 +5615,12 @@
       <c r="C343">
         <v>2</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D343">
+        <f t="shared" si="5"/>
+        <v>1080.4010000000001</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>36289</v>
       </c>
@@ -4251,8 +5630,12 @@
       <c r="C344">
         <v>2</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D344">
+        <f t="shared" si="5"/>
+        <v>1081.6020000000001</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>36289</v>
       </c>
@@ -4262,8 +5645,12 @@
       <c r="C345">
         <v>2</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D345">
+        <f t="shared" si="5"/>
+        <v>1083.5150000000001</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>68492</v>
       </c>
@@ -4273,8 +5660,12 @@
       <c r="C346">
         <v>2</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D346">
+        <f t="shared" si="5"/>
+        <v>1084.5550000000001</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>36289</v>
       </c>
@@ -4284,8 +5675,12 @@
       <c r="C347">
         <v>2</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D347">
+        <f t="shared" si="5"/>
+        <v>1085.9770000000001</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>68511</v>
       </c>
@@ -4295,8 +5690,12 @@
       <c r="C348">
         <v>2</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D348">
+        <f t="shared" si="5"/>
+        <v>1087.5229999999999</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>68483</v>
       </c>
@@ -4306,8 +5705,12 @@
       <c r="C349">
         <v>2</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D349">
+        <f t="shared" si="5"/>
+        <v>1090.7929999999999</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>68509</v>
       </c>
@@ -4317,8 +5720,12 @@
       <c r="C350">
         <v>5</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D350">
+        <f t="shared" si="5"/>
+        <v>1102.021</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>68490</v>
       </c>
@@ -4328,8 +5735,12 @@
       <c r="C351">
         <v>5</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D351">
+        <f t="shared" si="5"/>
+        <v>1102.691</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>68509</v>
       </c>
@@ -4339,8 +5750,12 @@
       <c r="C352">
         <v>5</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D352">
+        <f t="shared" si="5"/>
+        <v>1103.53</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>68509</v>
       </c>
@@ -4350,8 +5765,12 @@
       <c r="C353">
         <v>5</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D353">
+        <f t="shared" si="5"/>
+        <v>1103.9749999999999</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>68482</v>
       </c>
@@ -4361,8 +5780,12 @@
       <c r="C354">
         <v>1</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D354">
+        <f t="shared" si="5"/>
+        <v>1109.6990000000001</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>68482</v>
       </c>
@@ -4372,8 +5795,12 @@
       <c r="C355">
         <v>1</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D355">
+        <f t="shared" si="5"/>
+        <v>1114.5260000000001</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>68482</v>
       </c>
@@ -4383,8 +5810,12 @@
       <c r="C356">
         <v>1</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D356">
+        <f t="shared" si="5"/>
+        <v>1116.336</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>68482</v>
       </c>
@@ -4394,8 +5825,12 @@
       <c r="C357">
         <v>1</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D357">
+        <f t="shared" si="5"/>
+        <v>1118.7380000000001</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>68509</v>
       </c>
@@ -4405,8 +5840,12 @@
       <c r="C358">
         <v>1</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D358">
+        <f t="shared" si="5"/>
+        <v>1119.7329999999999</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>68482</v>
       </c>
@@ -4416,8 +5855,12 @@
       <c r="C359">
         <v>1</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D359">
+        <f t="shared" si="5"/>
+        <v>1121.2360000000001</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>68509</v>
       </c>
@@ -4427,8 +5870,12 @@
       <c r="C360">
         <v>1</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D360">
+        <f t="shared" si="5"/>
+        <v>1121.749</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>68482</v>
       </c>
@@ -4438,8 +5885,12 @@
       <c r="C361">
         <v>1</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D361">
+        <f t="shared" si="5"/>
+        <v>1123.94</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>68509</v>
       </c>
@@ -4449,8 +5900,12 @@
       <c r="C362">
         <v>1</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D362">
+        <f t="shared" si="5"/>
+        <v>1124.588</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>68482</v>
       </c>
@@ -4460,8 +5915,12 @@
       <c r="C363">
         <v>1</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D363">
+        <f t="shared" si="5"/>
+        <v>1126.492</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>68509</v>
       </c>
@@ -4471,8 +5930,12 @@
       <c r="C364">
         <v>1</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D364">
+        <f t="shared" si="5"/>
+        <v>1129.673</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>68482</v>
       </c>
@@ -4482,8 +5945,12 @@
       <c r="C365">
         <v>1</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D365">
+        <f t="shared" si="5"/>
+        <v>1133.614</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>68482</v>
       </c>
@@ -4493,8 +5960,12 @@
       <c r="C366">
         <v>1</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D366">
+        <f t="shared" si="5"/>
+        <v>1140.6880000000001</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>68509</v>
       </c>
@@ -4504,8 +5975,12 @@
       <c r="C367">
         <v>1</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D367">
+        <f t="shared" si="5"/>
+        <v>1141.749</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>68509</v>
       </c>
@@ -4515,8 +5990,12 @@
       <c r="C368">
         <v>1</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D368">
+        <f t="shared" si="5"/>
+        <v>1143.7850000000001</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>68509</v>
       </c>
@@ -4526,8 +6005,12 @@
       <c r="C369">
         <v>1</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D369">
+        <f t="shared" si="5"/>
+        <v>1145.8440000000001</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>68482</v>
       </c>
@@ -4537,8 +6020,12 @@
       <c r="C370">
         <v>1</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D370">
+        <f t="shared" si="5"/>
+        <v>1147.1110000000001</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>68509</v>
       </c>
@@ -4548,8 +6035,12 @@
       <c r="C371">
         <v>1</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D371">
+        <f t="shared" si="5"/>
+        <v>1147.9269999999999</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>68509</v>
       </c>
@@ -4559,8 +6050,12 @@
       <c r="C372">
         <v>1</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D372">
+        <f t="shared" si="5"/>
+        <v>1150.646</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>68509</v>
       </c>
@@ -4570,8 +6065,12 @@
       <c r="C373">
         <v>1</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D373">
+        <f t="shared" si="5"/>
+        <v>1151.5909999999999</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>68509</v>
       </c>
@@ -4581,8 +6080,12 @@
       <c r="C374">
         <v>1</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D374">
+        <f t="shared" si="5"/>
+        <v>1153.5809999999999</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>36288</v>
       </c>
@@ -4592,8 +6095,12 @@
       <c r="C375">
         <v>1</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D375">
+        <f t="shared" si="5"/>
+        <v>1155.2719999999999</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>68482</v>
       </c>
@@ -4603,8 +6110,12 @@
       <c r="C376">
         <v>1</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D376">
+        <f t="shared" si="5"/>
+        <v>1157.0820000000001</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>68509</v>
       </c>
@@ -4614,8 +6125,12 @@
       <c r="C377">
         <v>1</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D377">
+        <f t="shared" si="5"/>
+        <v>1158.1849999999999</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>36288</v>
       </c>
@@ -4624,6 +6139,10 @@
       </c>
       <c r="C378">
         <v>1</v>
+      </c>
+      <c r="D378">
+        <f t="shared" si="5"/>
+        <v>1160.296</v>
       </c>
     </row>
   </sheetData>
@@ -4635,8 +6154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="A22:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
